--- a/tests/missing cols.xlsx
+++ b/tests/missing cols.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
   <si>
     <t>Submission 2025-08-01</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Urologic</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>MEAN</t>
   </si>
 </sst>
 </file>
@@ -496,7 +502,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -504,20 +510,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="D1:E1048576"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="22.796875" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="13.8984375" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="13.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -528,56 +534,62 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12" ht="14.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>40</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12" ht="14.4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>34</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12" ht="14.4">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -587,17 +599,19 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="H4">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="J4">
         <v>7</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>8</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12" ht="14.4">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -607,17 +621,19 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="H5">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="J5">
         <v>7</v>
       </c>
-      <c r="I5">
-        <v>15</v>
-      </c>
-      <c r="J5">
+      <c r="K5">
+        <v>15</v>
+      </c>
+      <c r="L5">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12" ht="14.4">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -628,13 +644,17 @@
         <v>15</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.4">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -644,14 +664,16 @@
       <c r="C7" s="2">
         <v>17</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.4">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -662,13 +684,17 @@
         <v>15</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.4">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -678,14 +704,16 @@
       <c r="C9" s="2">
         <v>17</v>
       </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.4">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -695,14 +723,16 @@
       <c r="C10" s="2">
         <v>15</v>
       </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.4">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -712,14 +742,16 @@
       <c r="C11" s="2">
         <v>17</v>
       </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14.4">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,14 +761,18 @@
       <c r="C12" s="2">
         <v>15</v>
       </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="14.4">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -747,13 +783,17 @@
         <v>17</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="14.4">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -763,14 +803,16 @@
       <c r="C14" s="2">
         <v>15</v>
       </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="14.4">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -780,14 +822,16 @@
       <c r="C15" s="2">
         <v>17</v>
       </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="14.4">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
@@ -797,14 +841,16 @@
       <c r="C16" s="2">
         <v>15</v>
       </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.4">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
@@ -815,13 +861,19 @@
         <v>15</v>
       </c>
       <c r="D17" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.4">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -831,14 +883,16 @@
       <c r="C18" s="2">
         <v>15</v>
       </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.4">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
@@ -848,14 +902,16 @@
       <c r="C19" s="2">
         <v>15</v>
       </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.4">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -865,14 +921,16 @@
       <c r="C20" s="2">
         <v>15</v>
       </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.4">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -882,14 +940,16 @@
       <c r="C21" s="2">
         <v>15</v>
       </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.4">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -899,14 +959,16 @@
       <c r="C22" s="2">
         <v>15</v>
       </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.4">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
@@ -916,14 +978,16 @@
       <c r="C23" s="2">
         <v>15</v>
       </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.4">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
@@ -933,14 +997,16 @@
       <c r="C24" s="2">
         <v>15</v>
       </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.4">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
@@ -950,14 +1016,16 @@
       <c r="C25" s="2">
         <v>15</v>
       </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.4">
       <c r="A26" s="2" t="s">
         <v>1</v>
       </c>
@@ -967,14 +1035,16 @@
       <c r="C26" s="2">
         <v>15</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
         <v>2</v>
       </c>
-      <c r="E26" s="2">
+      <c r="G26" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:7" ht="14.4">
       <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
@@ -984,10 +1054,12 @@
       <c r="C27" s="2">
         <v>15</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2">
         <v>2</v>
       </c>
-      <c r="E27" s="2">
+      <c r="G27" s="2">
         <v>2</v>
       </c>
     </row>
